--- a/hear/sqlpad/cache/vlJqTigQJzeYiDEi.xlsx
+++ b/hear/sqlpad/cache/vlJqTigQJzeYiDEi.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -387,112 +387,167 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="str">
-        <v>14:36</v>
+        <v>13:28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1078</v>
+        <v>737</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="str">
-        <v>14:37</v>
+        <v>13:29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>884</v>
+        <v>712</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="C4" t="str">
-        <v>14:38</v>
+        <v>13:30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>891</v>
+        <v>652</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="str">
-        <v>14:39</v>
+        <v>13:31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>500</v>
+        <v>675</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
       </c>
       <c r="C6" t="str">
-        <v>14:40</v>
+        <v>13:32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>18</v>
+        <v>507</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="str">
-        <v>14:36</v>
+        <v>13:33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>586</v>
+        <v>639</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="str">
-        <v>14:37</v>
+        <v>13:34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>581</v>
+        <v>1</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="str">
-        <v>14:38</v>
+        <v>13:35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>637</v>
+        <v>293</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="str">
-        <v>14:39</v>
+        <v>13:28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>382</v>
+        <v>676</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="str">
-        <v>14:40</v>
+        <v>13:29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>716</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <v>13:30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>664</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>13:31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>585</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="str">
+        <v>13:32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>627</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="str">
+        <v>13:33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>593</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="str">
+        <v>13:34</v>
       </c>
     </row>
   </sheetData>
